--- a/automationpractice.xlsx
+++ b/automationpractice.xlsx
@@ -1,27 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Harshita_Software testing\HLR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Harshita_Software testing\HLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75AA67E-E3D0-4A1B-AD8C-0FCCFDC2023D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="2" r:id="rId2"/>
+    <sheet name="DefectReport" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="751">
   <si>
     <t>Description</t>
   </si>
@@ -4046,12 +4081,229 @@
       <t xml:space="preserve"> 1000</t>
     </r>
   </si>
+  <si>
+    <t>Test id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Summary </t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Defect Type</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect priority</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Harshita jaroli</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FDu1sRfMu1wnsj1DfEieXsWs115LD7EF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q-_vWlDuepsqTUHQ_OkAwffndsJkG2xS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UXMFs7dGDUB7w6Xa12MT498hT-s-VGov/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Functinality</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qW_Dh2zAJhAKpDO_ODoViwMsYyvucSJV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eYxGRCbDQ9UEy-tHTp8z1EBbiMy3hj70/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EbYhnUsiqbQHrox130xrK90RLyus3zId/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qnZz7zeP8sRaeV4E3h5x4_Adm757X6zG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1axDglBtzhPWGq0Mn96NoWaBp2XRkPA2j/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/199VxQsRWxyK_mBWi_6UUODLEcJ4OXkGH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13Hllm59aiOgMS3xGD-PzI98-nSMPLpu4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Sub_headi:customer service
+email:harshita@gmail.com
+order:fdf#13*df
+message:harshita</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xCDaVM0bd_Xm9DFRKYoZqlIW-bSbEJXN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aTiD9UzoAAJvLrTm01jKVEfE72O44I73/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PDtnbq2dfQgo1AOs2o6hZGRLHFwYZB3x/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Sub_headi:customer service
+email:harshita@gmail.com
+order:Reference 
+message:harshita</t>
+  </si>
+  <si>
+    <t>Sub_headi:customer service
+email:harshita@gmail.com
+order:5475335
+message:eriehreiutrhieurheuhrheehrurh</t>
+  </si>
+  <si>
+    <t>Sub_headi:customer service
+email:harshita@gmail.com
+order:5475335
+message:eihe
+efhief
+kfjehf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10B8mwJHoKSV7DFjILgAUG87dvpWqLIfw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XyhBdsHed3FCiONT__KzAzo7jx99Fg4T/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mPB9eGNJFzUgviknxP86whJtnmm6tdTi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hua3dMKgRogqwA5mgo9_-bOYB6UyHzRy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k7K6nWfaAxgPB1MBbQAfif3OTz5OZCyW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>its not showing proper validation message its open create an account page</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zHP7o0srq-r5sJAAQHBIHtMJXTve67Mq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14lMHOaAndoiPQ4GQGn9fvLA2uSctjdg3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/120T5JV5uS6kySbKq_xUah3wD6SByEwo5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PDSHESWzuOqLlcBJLk7lZrMCj9SPBp7E/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13CErWi5_A1DVYvfnShWVkRhlksxvlcXG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EJjzCAf0paLUZKF9JpEEGsXIVU0kUmZ4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vZdrap-fFRdXtmm1tMPbdK-kfuCEz9nW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iNIMAFxuPj3AfoMplIM7h9Dfii9nIUr3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t935lnO6fVhs0FPrvVByzJ9NqCX6VXng/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>its not showing proper validation its show invalid email address</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wYdfidptGBNaoYfwjvLM9gN5XHNy-Hw9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>its not showing proper validaton messageits only show that email address is not valid</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zdo2NhL8QpJPihi9bAhbvdgQgNowN5S7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>quality:
+Title:
+Comment:</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DDrxs9Mna4xsPcf_SUlyepiL-OeA9vs0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18CnYg2BV3B37WCAiJ-p8doOdBcIPmE-U/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>its not showing proper validation message its send mail on wrong domain name</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N4emra7xTW7brzjlVhhLx1Khf0jEYgAU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Funtionality</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VNDs5cfkkQTnwobZLOfNumjnprjrXejT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sgbVQ8gv1WBAu7QEap-mPKn7S5Ieb0i-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wtTNaHueEfIgN9Jb_q7Ew4j8XxB4yR1S/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wCiOzZEzjYZy60YJo-3qop_P3q9oHyD9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ISV2xYTbWjeub0zdp44isVnbRW8o1fFE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eQsWMk5fbkyHzZsjPznGB7fACkvDRLho/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vdh-PdpgRQ_dlt7Nk8pIXoeA_BLvCEGE/view?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4107,6 +4359,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4146,10 +4419,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4190,8 +4464,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4283,23 +4564,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4335,23 +4599,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4527,11 +4774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6194,11 +6441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6361429F-97A0-4F8A-8049-92C890392D19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A55" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11900,4 +12147,5506 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="11" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>61</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="5" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>63</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>64</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>74</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>75</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>125</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>162</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>163</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>169</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>180</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>181</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>182</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>214</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>217</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>220</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>225</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
+    <hyperlink ref="L39" r:id="rId38"/>
+    <hyperlink ref="L40" r:id="rId39"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId40"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G216"/>
+  <sheetViews>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>100</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>102</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>102</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>102</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9">
+        <v>102</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <v>102</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9">
+        <v>102</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9">
+        <v>102</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9">
+        <v>102</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9">
+        <v>102</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9">
+        <v>102</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9">
+        <v>103</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9">
+        <v>200</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <v>201</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" s="9">
+        <v>202</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9">
+        <v>202</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9">
+        <v>202</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9">
+        <v>202</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5">
+        <v>202</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5">
+        <v>202</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5">
+        <v>202</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9">
+        <v>202</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>51</v>
+      </c>
+      <c r="B29" s="9">
+        <v>202</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>52</v>
+      </c>
+      <c r="B30" s="9">
+        <v>202</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2">
+        <v>202</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2">
+        <v>203</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <v>203</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>57</v>
+      </c>
+      <c r="B35" s="9">
+        <v>203</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>58</v>
+      </c>
+      <c r="B36" s="9">
+        <v>203</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>59</v>
+      </c>
+      <c r="B37" s="9">
+        <v>203</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>60</v>
+      </c>
+      <c r="B38" s="9">
+        <v>203</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>62</v>
+      </c>
+      <c r="B39" s="10">
+        <v>203</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>65</v>
+      </c>
+      <c r="B40" s="10">
+        <v>203</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2">
+        <v>204</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2">
+        <v>204</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2">
+        <v>204</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2">
+        <v>204</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2">
+        <v>205</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>71</v>
+      </c>
+      <c r="B46" s="2">
+        <v>206</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2">
+        <v>207</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>73</v>
+      </c>
+      <c r="B48" s="2">
+        <v>208</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>76</v>
+      </c>
+      <c r="B49" s="9">
+        <v>210</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>77</v>
+      </c>
+      <c r="B50" s="2">
+        <v>300</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>78</v>
+      </c>
+      <c r="B51" s="2">
+        <v>301</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>79</v>
+      </c>
+      <c r="B52" s="2">
+        <v>302</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>80</v>
+      </c>
+      <c r="B53" s="2">
+        <v>303</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>81</v>
+      </c>
+      <c r="B54" s="2">
+        <v>304</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>82</v>
+      </c>
+      <c r="B55" s="2">
+        <v>305</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>83</v>
+      </c>
+      <c r="B56" s="2">
+        <v>306</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>84</v>
+      </c>
+      <c r="B57" s="2">
+        <v>307</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>85</v>
+      </c>
+      <c r="B58" s="2">
+        <v>308</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>86</v>
+      </c>
+      <c r="B59" s="2">
+        <v>309</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>87</v>
+      </c>
+      <c r="B60" s="2">
+        <v>310</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>88</v>
+      </c>
+      <c r="B61" s="2">
+        <v>311</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>89</v>
+      </c>
+      <c r="B62" s="2">
+        <v>311</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2">
+        <v>312</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2">
+        <v>313</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>92</v>
+      </c>
+      <c r="B65" s="2">
+        <v>314</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2">
+        <v>315</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2">
+        <v>316</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>95</v>
+      </c>
+      <c r="B68" s="2">
+        <v>316</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>96</v>
+      </c>
+      <c r="B69" s="2">
+        <v>317</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2">
+        <v>318</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2">
+        <v>319</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>99</v>
+      </c>
+      <c r="B72" s="2">
+        <v>320</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>100</v>
+      </c>
+      <c r="B73" s="2">
+        <v>321</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>101</v>
+      </c>
+      <c r="B74" s="2">
+        <v>322</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>102</v>
+      </c>
+      <c r="B75" s="2">
+        <v>323</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>103</v>
+      </c>
+      <c r="B76" s="2">
+        <v>324</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>104</v>
+      </c>
+      <c r="B77" s="2">
+        <v>400</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2">
+        <v>401</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>106</v>
+      </c>
+      <c r="B79" s="2">
+        <v>402</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>107</v>
+      </c>
+      <c r="B80" s="2">
+        <v>403</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>108</v>
+      </c>
+      <c r="B81" s="2">
+        <v>404</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>109</v>
+      </c>
+      <c r="B82" s="2">
+        <v>500</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>110</v>
+      </c>
+      <c r="B83" s="2">
+        <v>501</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>111</v>
+      </c>
+      <c r="B84" s="2">
+        <v>502</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>112</v>
+      </c>
+      <c r="B85" s="2">
+        <v>503</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>113</v>
+      </c>
+      <c r="B86" s="2">
+        <v>504</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>114</v>
+      </c>
+      <c r="B87" s="2">
+        <v>505</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>115</v>
+      </c>
+      <c r="B88" s="2">
+        <v>506</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
+        <v>507</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>116</v>
+      </c>
+      <c r="B90" s="2">
+        <v>508</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>117</v>
+      </c>
+      <c r="B91" s="2">
+        <v>509</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>118</v>
+      </c>
+      <c r="B92" s="2">
+        <v>510</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>120</v>
+      </c>
+      <c r="B94" s="2">
+        <v>600</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>121</v>
+      </c>
+      <c r="B95" s="2">
+        <v>601</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>122</v>
+      </c>
+      <c r="B96" s="2">
+        <v>602</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>123</v>
+      </c>
+      <c r="B97" s="2">
+        <v>603</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>124</v>
+      </c>
+      <c r="B98" s="2">
+        <v>603</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>126</v>
+      </c>
+      <c r="B99" s="2">
+        <v>603</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>127</v>
+      </c>
+      <c r="B100" s="2">
+        <v>603</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>128</v>
+      </c>
+      <c r="B101" s="2">
+        <v>604</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>129</v>
+      </c>
+      <c r="B102" s="2">
+        <v>605</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>131</v>
+      </c>
+      <c r="B104" s="2">
+        <v>700</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>132</v>
+      </c>
+      <c r="B105" s="2">
+        <v>701</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>133</v>
+      </c>
+      <c r="B106" s="2">
+        <v>702</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>134</v>
+      </c>
+      <c r="B107" s="2">
+        <v>703</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>136</v>
+      </c>
+      <c r="B108" s="2">
+        <v>704</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>137</v>
+      </c>
+      <c r="B109" s="2">
+        <v>705</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>138</v>
+      </c>
+      <c r="B110" s="9">
+        <v>706</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>139</v>
+      </c>
+      <c r="B111" s="2">
+        <v>707</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>140</v>
+      </c>
+      <c r="B112" s="2">
+        <v>708</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2">
+        <v>709</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>142</v>
+      </c>
+      <c r="B114" s="2">
+        <v>710</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>143</v>
+      </c>
+      <c r="B115" s="2">
+        <v>711</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>144</v>
+      </c>
+      <c r="B116" s="2">
+        <v>712</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>145</v>
+      </c>
+      <c r="B117" s="2">
+        <v>713</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>146</v>
+      </c>
+      <c r="B118" s="2">
+        <v>714</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>147</v>
+      </c>
+      <c r="B119" s="2">
+        <v>715</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>148</v>
+      </c>
+      <c r="B120" s="2">
+        <v>716</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>149</v>
+      </c>
+      <c r="B121" s="2">
+        <v>717</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>150</v>
+      </c>
+      <c r="B122" s="2">
+        <v>718</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>151</v>
+      </c>
+      <c r="B123" s="2">
+        <v>719</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>152</v>
+      </c>
+      <c r="B124" s="2">
+        <v>720</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>153</v>
+      </c>
+      <c r="B125" s="2">
+        <v>721</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>154</v>
+      </c>
+      <c r="B126" s="2">
+        <v>722</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>155</v>
+      </c>
+      <c r="B127" s="2">
+        <v>723</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>156</v>
+      </c>
+      <c r="B128" s="2">
+        <v>724</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>157</v>
+      </c>
+      <c r="B129" s="2">
+        <v>725</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>158</v>
+      </c>
+      <c r="B130" s="2">
+        <v>726</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>159</v>
+      </c>
+      <c r="B131" s="2">
+        <v>727</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2">
+        <v>728</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>161</v>
+      </c>
+      <c r="B133" s="2">
+        <v>729</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>164</v>
+      </c>
+      <c r="B134" s="9">
+        <v>730</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>165</v>
+      </c>
+      <c r="B135" s="2">
+        <v>731</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>166</v>
+      </c>
+      <c r="B136" s="2">
+        <v>732</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>167</v>
+      </c>
+      <c r="B137" s="2">
+        <v>732</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>168</v>
+      </c>
+      <c r="B138" s="2">
+        <v>732</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
+        <v>170</v>
+      </c>
+      <c r="B139" s="9">
+        <v>733</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>171</v>
+      </c>
+      <c r="B140" s="2">
+        <v>734</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>172</v>
+      </c>
+      <c r="B141" s="2">
+        <v>735</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>173</v>
+      </c>
+      <c r="B142" s="2">
+        <v>736</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>174</v>
+      </c>
+      <c r="B143" s="2">
+        <v>737</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>175</v>
+      </c>
+      <c r="B144" s="2">
+        <v>738</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>177</v>
+      </c>
+      <c r="B146" s="2">
+        <v>800</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>178</v>
+      </c>
+      <c r="B147" s="2">
+        <v>801</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>179</v>
+      </c>
+      <c r="B148" s="2">
+        <v>802</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>183</v>
+      </c>
+      <c r="B149" s="9">
+        <v>802</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>184</v>
+      </c>
+      <c r="B150" s="2">
+        <v>803</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>185</v>
+      </c>
+      <c r="B151" s="2">
+        <v>804</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>186</v>
+      </c>
+      <c r="B152" s="2">
+        <v>805</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="9">
+        <v>188</v>
+      </c>
+      <c r="B154" s="9">
+        <v>900</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>189</v>
+      </c>
+      <c r="B155" s="2">
+        <v>901</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>191</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>192</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>193</v>
+      </c>
+      <c r="B159" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>194</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>195</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>196</v>
+      </c>
+      <c r="B162" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>197</v>
+      </c>
+      <c r="B163" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>198</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1007</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>199</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1008</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>200</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>201</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1010</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>202</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>203</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>204</v>
+      </c>
+      <c r="B170" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>205</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1014</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>206</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1015</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>207</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1016</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>208</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1017</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>209</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1018</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>210</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1019</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>211</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>212</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1021</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>213</v>
+      </c>
+      <c r="B179" s="9">
+        <v>1100</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>215</v>
+      </c>
+      <c r="B180" s="9">
+        <v>1100</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>228</v>
+      </c>
+      <c r="B181" s="9">
+        <v>1100</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>230</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>231</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1102</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>232</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1103</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>233</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>234</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>235</v>
+      </c>
+      <c r="B187" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>236</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1107</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>237</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1108</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>238</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1109</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>239</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1110</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>240</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1111</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>241</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1112</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>242</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1113</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>243</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1114</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>244</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1115</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>245</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1116</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>246</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1117</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>247</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1118</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>